--- a/medicine/Enfance/Bryce_Walton/Bryce_Walton.xlsx
+++ b/medicine/Enfance/Bryce_Walton/Bryce_Walton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bryce Walton, né le 31 mai 1918 à Blythedale, dans l'État du Missouri, et mort le 5 février 1988 dans le quartier de Van Nuys, à Los Angeles, en Californie, est un écrivain et scénariste américain.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il abandonne ses études pour accepter divers emplois à partir de 1938, mais il reprend bientôt ses études à l'université d'État de Californie à Los Angeles et en sort diplômé en 1941. Pendant la Seconde Guerre mondiale, il est correspondant de guerre au sein du United States Marine Corps. À ce titre, « il fait l'objet d'une citation spéciale de l'amiral Nimitz pour sa couverture de la bataille d'Iwo Jima »[1]. Démobilisé, « il se consacre à plein temps à l'écriture et fournit des histoires policières, de western ou de science-fiction aux derniers pulps »[1], avant de signer tous ses écrits de son patronyme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il abandonne ses études pour accepter divers emplois à partir de 1938, mais il reprend bientôt ses études à l'université d'État de Californie à Los Angeles et en sort diplômé en 1941. Pendant la Seconde Guerre mondiale, il est correspondant de guerre au sein du United States Marine Corps. À ce titre, « il fait l'objet d'une citation spéciale de l'amiral Nimitz pour sa couverture de la bataille d'Iwo Jima ». Démobilisé, « il se consacre à plein temps à l'écriture et fournit des histoires policières, de western ou de science-fiction aux derniers pulps », avant de signer tous ses écrits de son patronyme.
 Dans les années 1950, sous les pseudonymes de Kenneth O'Hara ou de Paul Franklin, ainsi que sous son patronyme, il écrit surtout des nouvelles appartenant au genre policier, parfois mâtinées de fantastique ou d'humour noir. Ces textes paraissent régulièrement dans les pages du Saturday Evening Post, du Ellery Queen's Mystery Magazine et du Alfred Hitchcock's Mystery Magazine, notamment la nouvelle intitulée Le Pire des monstres (The Greatest Monster of Them, 1959), adaptée en 1961 pour un des épisodes la série télévisée américaine Alfred Hitchcock présente. En 1962, Bryce Walton rédigera lui-même trois scénarios pour cette même série.
-Selon le Dictionnaire des littératures policières, comparé aux auteurs du roman noir de la génération précédente, Bryce Walton apporte aux récits criminels « le suspense, une solide psychologie des personnages, un art raffiné dans le mélange des genres [...], ainsi qu'une audace dans le choix des sujets traités »[1], caractéristiques qui ont suscité l'admiration de l'écrivain Bill Pronzini.
+Selon le Dictionnaire des littératures policières, comparé aux auteurs du roman noir de la génération précédente, Bryce Walton apporte aux récits criminels « le suspense, une solide psychologie des personnages, un art raffiné dans le mélange des genres [...], ainsi qu'une audace dans le choix des sujets traités », caractéristiques qui ont suscité l'admiration de l'écrivain Bill Pronzini.
 Walton a également publié des romans, dont le récit de science-fiction Sons of the Ocean Deeps (1952), et des titres de littérature d'enfance et de jeunesse qui mêlent aventures et enquêtes policières.
 </t>
         </is>
@@ -547,17 +561,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Sons of the Ocean Deeps (1952), roman de science-fiction
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sons of the Ocean Deeps (1952), roman de science-fiction
 The Long Night (1952)
 Captain Video and his Video Rangers (1953)
 Cave of Danger (1967)
 Harpoon Gunner (1968)
 Hurricane Reef (1970)
 Cave of Danger (1971)
-The Fire Trail (1974)
-Nouvelles
-Sjambok! (1946)
+The Fire Trail (1974)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bryce_Walton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bryce_Walton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sjambok! (1946)
 Blood for the Black Ouanga (1947)
 The Silver Kraal (1947)
 An Eye for Murder (1947)
@@ -732,18 +785,86 @@
 A Time for Sharks (1974) Publié en français sous le titre Le Temps des requins, Paris, Opta, Alfred Hitchcock magazine no 161, octobre 1974 ; réédition dans le recueil Eaux mystérieuses et Mers infernales, Nantes, Atalante, 2000
 Scrogg’s End (1975)
 Number Five (1979)
-Chance for Freedom (1981)
-Nouvelles signées Kenneth O'Hara
-The Difference (1951)
+Chance for Freedom (1981)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bryce_Walton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bryce_Walton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles signées Kenneth O'Hara</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Difference (1951)
 I Want to Meet Her (1955)
 Third Party (1956)
 Like Hunting a Rabbit (1957)
 Touche (1958)
 A Week-End Ghoul (1958)
 I Know I’m Guilty! (1960)
-Promotion Deferred (1961)
-Nouvelles signées Paul Franklin
-A Sentimental Guy (1933)
+Promotion Deferred (1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bryce_Walton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bryce_Walton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles signées Paul Franklin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A Sentimental Guy (1933)
 The Duel (1955)</t>
         </is>
       </c>
